--- a/素材/生成AIを使用したコード生成.xlsx
+++ b/素材/生成AIを使用したコード生成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\technicalpartner\NCP-TF-Report-IaC_by_AI\素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2A65E-B79B-4DEB-B790-E56CA9801C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFF427-F20C-4770-9241-2E4F5369E551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EBBB7E3D-259E-45BE-B511-557563A80DF3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EBBB7E3D-259E-45BE-B511-557563A80DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,15 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +283,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -314,15 +314,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>264472</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>54266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1713</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>82829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -381,15 +381,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>247909</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>54264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1890150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -452,15 +452,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>986785</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>313531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1174,15 +1174,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>412505</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>650630</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>170796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1478,15 +1478,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>170796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1782,15 +1782,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>153591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>913682</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>146298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1926,15 +1926,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11386</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>153591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1051034</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>110302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2074,15 +2074,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1119187</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2127,15 +2127,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2180,15 +2180,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>216158</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>117872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1132010</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>20619</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2321,15 +2321,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>113109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2412,15 +2412,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>20364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>113317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2716,15 +2716,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>839391</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2769,15 +2769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>87038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>103255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2872,15 +2872,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1101328</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>375047</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2925,15 +2925,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>451821</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>219033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1332882</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>36129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3007,15 +3007,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>140546</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>116215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1782146</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>187654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3144,15 +3144,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>93648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>937494</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>86355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3288,15 +3288,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>505941</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>402047</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>217785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3436,15 +3436,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>506016</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>208359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>601266</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3497,15 +3497,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>412505</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>36786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>650630</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>131383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3801,15 +3801,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11386</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1051034</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>70146</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3949,15 +3949,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>5712</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>211447</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>39493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4671,15 +4671,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>412505</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>115614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>650630</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>210210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4975,15 +4975,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11386</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>193005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1051034</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>54105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5126,15 +5126,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>137091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1707931</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>235627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5301,15 +5301,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>39412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1707931</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>32844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5404,15 +5404,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>213737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>70209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5708,15 +5708,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>41097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>937494</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>37819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5852,15 +5852,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>845344</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>185163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>185163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5905,15 +5905,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>42287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>60147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6008,15 +6008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1159306</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>4691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>289891</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>4691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6061,15 +6061,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>506016</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>601266</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6122,15 +6122,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>451821</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>87654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1332882</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>141233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6204,15 +6204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>529211</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>112201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1410272</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>169930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6286,15 +6286,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>75133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6347,15 +6347,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>412505</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>77237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>650630</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>172726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6651,15 +6651,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11386</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>155521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1051034</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>110597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6799,15 +6799,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>48303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>145407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7103,15 +7103,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>116295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>937494</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>113016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7247,15 +7247,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>845344</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7300,15 +7300,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>117484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>135345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7403,15 +7403,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>506016</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>155408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>601266</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7464,15 +7464,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1101328</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>190544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>190544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7517,15 +7517,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>85132</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152403</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7585,15 +7585,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>399457</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1714503</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>116082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7653,15 +7653,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>113708</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>180979</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7721,15 +7721,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>399457</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1714503</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7789,15 +7789,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>412505</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>226324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>650630</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>81618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8093,15 +8093,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11386</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>89261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1051034</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>183131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8244,15 +8244,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1082453</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>194884</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>39489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8966,15 +8966,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1707931</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>198785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9041,15 +9041,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>213955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>70864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9345,15 +9345,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>41752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>937494</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9489,15 +9489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>506016</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>72582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>601266</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>156705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9550,15 +9550,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1101328</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9603,15 +9603,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>845344</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>185381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>185381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9656,15 +9656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>42940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>60802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9759,15 +9759,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>239624</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>70830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1881865</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9826,15 +9826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1090734</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>82542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>203165</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>64339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10548,15 +10548,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>464527</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>39182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>203264</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>209503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10696,15 +10696,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>464527</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>203264</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>10720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10844,16 +10844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>456245</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>439680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>231912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1167848</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1151283</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10868,7 +10868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="456245" y="7702825"/>
+          <a:off x="439680" y="8083825"/>
           <a:ext cx="5151081" cy="554936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11008,15 +11008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>911087</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11062,15 +11062,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>761742</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>4691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>4691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11115,15 +11115,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>422413</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>651777</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>364435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11457,169 +11457,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECE7D37-59AA-4D28-BA0E-87A23378A93D}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="F3" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
